--- a/merrygoround/data.xlsx
+++ b/merrygoround/data.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominic Chim\Dropbox\Assignment 1\merrygoround\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,12 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>MB</t>
   </si>
   <si>
     <t>Nodes</t>
+  </si>
+  <si>
+    <t>Nodes/MB</t>
+  </si>
+  <si>
+    <t>Speedup</t>
+  </si>
+  <si>
+    <t>speedup</t>
   </si>
 </sst>
 </file>
@@ -68,6 +82,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -85,67 +107,46 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Round</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> trip  time analysis</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.836344783652469E-2"/>
+          <c:y val="1.193063477036045E-2"/>
+          <c:w val="0.90275768201523998"/>
+          <c:h val="0.92931735439228458"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.104</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.221</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -163,6 +164,28 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$1:$D$1</c:f>
@@ -170,13 +193,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -188,13 +211,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.987</c:v>
+                  <c:v>0.98699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.055</c:v>
+                  <c:v>2.0550000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.311</c:v>
+                  <c:v>4.3109999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -211,21 +234,136 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2113741160"/>
-        <c:axId val="-2113680088"/>
+        <c:axId val="-2086911504"/>
+        <c:axId val="-2086924560"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2000813248"/>
+        <c:axId val="-2000806720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2113741160"/>
+        <c:axId val="-2086911504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Amount</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of Nodes used</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113680088"/>
+        <c:crossAx val="-2086924560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -233,25 +371,114 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113680088"/>
+        <c:axId val="-2086924560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Rountrip time </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> in 512 MB</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113741160"/>
+        <c:crossAx val="-2086911504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="-2000806720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Roundtrip</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> time in 25 MB</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2000813248"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2000813248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2000806720"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.94613910496584808"/>
+          <c:y val="0.63082519377159962"/>
+          <c:w val="5.3860895034151958E-2"/>
+          <c:h val="0.14141085736716927"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -260,7 +487,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -271,15 +498,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390096</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>120649</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -623,15 +850,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="14.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>4</v>
       </c>
@@ -644,8 +874,20 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1">
+        <v>25</v>
+      </c>
+      <c r="R1">
+        <v>512</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>25</v>
       </c>
@@ -658,8 +900,21 @@
       <c r="D2">
         <v>0.221</v>
       </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>0.63</v>
+      </c>
+      <c r="R2">
+        <v>5.31</v>
+      </c>
+      <c r="S2">
+        <f>Q2/R2</f>
+        <v>0.11864406779661017</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>512</v>
       </c>
@@ -672,10 +927,41 @@
       <c r="D3">
         <v>4.3109999999999999</v>
       </c>
+      <c r="P3">
+        <v>8</v>
+      </c>
+      <c r="Q3">
+        <v>1.93</v>
+      </c>
+      <c r="R3">
+        <v>19.52</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S4" si="0">Q3/R3</f>
+        <v>9.8872950819672137E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
+      </c>
+      <c r="P4">
+        <v>16</v>
+      </c>
+      <c r="Q4">
+        <v>6.55</v>
+      </c>
+      <c r="R4">
+        <v>76.849999999999994</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>8.5230969420949904E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
